--- a/results/mp/tinybert/corona/confidence/84/0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,142 +40,154 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>won</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>great</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>healthy</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
-    <t>better</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>share</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -533,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -541,10 +553,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -602,13 +614,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -620,19 +632,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -644,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -652,13 +664,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.84</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -670,19 +682,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -694,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -702,49 +714,49 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8235294117647058</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>14</v>
       </c>
-      <c r="D5">
-        <v>14</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
+      <c r="J5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5">
+        <v>0.9347826086956522</v>
+      </c>
+      <c r="L5">
+        <v>43</v>
+      </c>
+      <c r="M5">
+        <v>43</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>3</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5">
-        <v>0.96875</v>
-      </c>
-      <c r="L5">
-        <v>31</v>
-      </c>
-      <c r="M5">
-        <v>31</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -752,13 +764,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7337662337662337</v>
+        <v>0.5684931506849316</v>
       </c>
       <c r="C6">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="D6">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -770,19 +782,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>0.9583333333333334</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -794,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -802,13 +814,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3261802575107296</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C7">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -820,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K7">
-        <v>0.9444444444444444</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L7">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -844,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -852,13 +864,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2674418604651163</v>
+        <v>0.1802325581395349</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -870,19 +882,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>63</v>
+        <v>423</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K8">
-        <v>0.8888888888888888</v>
+        <v>0.875</v>
       </c>
       <c r="L8">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="M8">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -894,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -902,13 +914,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2</v>
+        <v>0.1534391534391534</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -920,19 +932,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K9">
-        <v>0.8823529411764706</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L9">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -952,13 +964,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1181818181818182</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -970,95 +982,71 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10">
+        <v>0.8275862068965517</v>
+      </c>
+      <c r="L10">
+        <v>48</v>
+      </c>
+      <c r="M10">
+        <v>48</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K10">
-        <v>0.875</v>
-      </c>
-      <c r="L10">
-        <v>35</v>
-      </c>
-      <c r="M10">
-        <v>35</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
+      <c r="K11">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="L11">
+        <v>22</v>
+      </c>
+      <c r="M11">
+        <v>22</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.08148148148148149</v>
-      </c>
-      <c r="C11">
-        <v>11</v>
-      </c>
-      <c r="D11">
-        <v>11</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>124</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L11">
-        <v>46</v>
-      </c>
-      <c r="M11">
-        <v>46</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K12">
-        <v>0.8214285714285714</v>
+        <v>0.8125</v>
       </c>
       <c r="L12">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="M12">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1070,21 +1058,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K13">
-        <v>0.8125</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L13">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M13">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1096,21 +1084,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K14">
-        <v>0.7843137254901961</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L14">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="M14">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1122,21 +1110,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K15">
-        <v>0.7692307692307693</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L15">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="M15">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1148,21 +1136,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K16">
-        <v>0.7647058823529411</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L16">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M16">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1174,21 +1162,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K17">
-        <v>0.7586206896551724</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L17">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="M17">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1200,21 +1188,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K18">
-        <v>0.7586206896551724</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="L18">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="M18">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1226,21 +1214,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K19">
-        <v>0.7534246575342466</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L19">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="M19">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1252,21 +1240,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K20">
-        <v>0.7435897435897436</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L20">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M20">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1283,16 +1271,16 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K21">
-        <v>0.7083333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L21">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M21">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1304,21 +1292,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K22">
-        <v>0.6923076923076923</v>
+        <v>0.70625</v>
       </c>
       <c r="L22">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="M22">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1330,21 +1318,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K23">
-        <v>0.6818181818181818</v>
+        <v>0.62</v>
       </c>
       <c r="L23">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M23">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1356,21 +1344,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K24">
+        <v>0.6190476190476191</v>
+      </c>
+      <c r="L24">
         <v>39</v>
       </c>
-      <c r="K24">
-        <v>0.68</v>
-      </c>
-      <c r="L24">
-        <v>17</v>
-      </c>
       <c r="M24">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1382,21 +1370,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K25">
-        <v>0.631578947368421</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L25">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="M25">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1408,21 +1396,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>0.6</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L26">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M26">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1434,21 +1422,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>0.5882352941176471</v>
+        <v>0.5195822454308094</v>
       </c>
       <c r="L27">
-        <v>10</v>
+        <v>199</v>
       </c>
       <c r="M27">
-        <v>10</v>
+        <v>199</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1460,21 +1448,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>7</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>0.5757575757575758</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="L28">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M28">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1486,21 +1474,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>0.5357142857142857</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L29">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M29">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1512,21 +1500,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>0.5333333333333333</v>
+        <v>0.4647058823529412</v>
       </c>
       <c r="L30">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="M30">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1538,21 +1526,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>14</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>0.5208333333333334</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="L31">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="M31">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1564,21 +1552,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>69</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>0.5117370892018779</v>
+        <v>0.4157303370786517</v>
       </c>
       <c r="L32">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="M32">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1590,21 +1578,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>104</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>0.5</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L33">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="M33">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1616,21 +1604,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>0.4418604651162791</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L34">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="M34">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1642,21 +1630,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>72</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>0.4021739130434783</v>
+        <v>0.3538461538461539</v>
       </c>
       <c r="L35">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="M35">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1668,21 +1656,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K36">
-        <v>0.4</v>
+        <v>0.3096234309623431</v>
       </c>
       <c r="L36">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="M36">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1694,21 +1682,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>15</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K37">
-        <v>0.3714285714285714</v>
+        <v>0.296875</v>
       </c>
       <c r="L37">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M37">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1720,33 +1708,163 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K38">
+        <v>0.01916666666666667</v>
+      </c>
+      <c r="L38">
+        <v>23</v>
+      </c>
+      <c r="M38">
+        <v>23</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K38">
-        <v>0.2631578947368421</v>
-      </c>
-      <c r="L38">
-        <v>10</v>
-      </c>
-      <c r="M38">
-        <v>10</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>28</v>
+      <c r="K39">
+        <v>0.01086549269389284</v>
+      </c>
+      <c r="L39">
+        <v>29</v>
+      </c>
+      <c r="M39">
+        <v>33</v>
+      </c>
+      <c r="N39">
+        <v>0.88</v>
+      </c>
+      <c r="O39">
+        <v>0.12</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K40">
+        <v>0.0102291325695581</v>
+      </c>
+      <c r="L40">
+        <v>25</v>
+      </c>
+      <c r="M40">
+        <v>26</v>
+      </c>
+      <c r="N40">
+        <v>0.96</v>
+      </c>
+      <c r="O40">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K41">
+        <v>0.009345794392523364</v>
+      </c>
+      <c r="L41">
+        <v>20</v>
+      </c>
+      <c r="M41">
+        <v>23</v>
+      </c>
+      <c r="N41">
+        <v>0.87</v>
+      </c>
+      <c r="O41">
+        <v>0.13</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K42">
+        <v>0.005085529357374018</v>
+      </c>
+      <c r="L42">
+        <v>22</v>
+      </c>
+      <c r="M42">
+        <v>24</v>
+      </c>
+      <c r="N42">
+        <v>0.92</v>
+      </c>
+      <c r="O42">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>4304</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K43">
+        <v>0.003803042433947158</v>
+      </c>
+      <c r="L43">
+        <v>19</v>
+      </c>
+      <c r="M43">
+        <v>19</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>4977</v>
       </c>
     </row>
   </sheetData>
